--- a/biology/Zoologie/Hymenochirus_boettgeri/Hymenochirus_boettgeri.xlsx
+++ b/biology/Zoologie/Hymenochirus_boettgeri/Hymenochirus_boettgeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hymenochirus boettgeri est une espèce d'amphibiens de la famille des Pipidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hymenochirus boettgeri est une espèce d'amphibiens de la famille des Pipidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du centre de l'Afrique. Elle se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du centre de l'Afrique. Elle se rencontre, :
 dans le sud-est du Nigeria ;
 dans le sud du Cameroun ;
 dans le sud de la République centrafricaine ;
@@ -547,9 +561,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Oskar Boettger[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Oskar Boettger.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Perret &amp; Mertens, 1957 : Étude d'une collection herpétologique faite au Cameroun de 1952 à 1955. Bulletin de l'Institut français d'Afrique noire A, vol. 19, no 2, p. 548-601.
 Tornier, 1896 : Reptilien, Amphibien in Möbius, K. (Ed.), Deutsch Ost-Afrika, vol. 3, Die Thierwelt Ost-Afrikas (Part 4). Dietrich Reimer, Berlin, p. 1-164.</t>
